--- a/public/excel/format_pbj/pbjsoffy1.xlsx
+++ b/public/excel/format_pbj/pbjsoffy1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B77C84-87B3-4EB2-BEE1-5E9ED770053C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FCAFC-05D6-4884-AC89-7667DA0ABF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,145 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="376">
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>ST</t>
-  </si>
-  <si>
-    <t>Nama Lengkap (dengan Gelar)</t>
-  </si>
-  <si>
-    <t>No Hp (Whatsapp)</t>
-  </si>
-  <si>
-    <t>Tempat, Tanggal, Lahir</t>
-  </si>
-  <si>
-    <t>Pendidikan Terakhir</t>
-  </si>
-  <si>
-    <t>Instansi/Perusahaan</t>
-  </si>
-  <si>
-    <t>Pemerintah</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
-    <t>NIK</t>
-  </si>
-  <si>
-    <t>Status Kepegawaian</t>
-  </si>
-  <si>
-    <t>Alamat Lengkap Kantor</t>
-  </si>
-  <si>
-    <t>Kode Pos</t>
-  </si>
-  <si>
-    <t>Unit Organisasi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Posisi Pelaku Pengadaan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pilih Salah Satu Saja)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jenis Jabatan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pilih Salah Satu Saja)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nama Jabatan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Jika Non PNS silahkan isi " - ")</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Golongan Terakhir </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Jika Non PNS silahkan isi " - ")</t>
-    </r>
-  </si>
-  <si>
-    <t>Paket Kontribusi</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Upload Foto KTP</t>
-  </si>
-  <si>
-    <t>Upload Pas Foto 3x4</t>
-  </si>
-  <si>
-    <t>Upload SK Pengangkatan ASN (jika non PNS Bisa dikosongkan)</t>
   </si>
   <si>
     <t>UPLOAD SERTIFIKAT KELULUSAN LKPP PBJ DASAR/ LEVEL 1/ SERTIFIKAT L2, L4, L5</t>
@@ -1236,6 +1098,72 @@
   <si>
     <t>Penata muda tk1 III/d</t>
   </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nama_dengan_gelar</t>
+  </si>
+  <si>
+    <t>no_hp</t>
+  </si>
+  <si>
+    <t>tempat_tanggal_lahir</t>
+  </si>
+  <si>
+    <t>pendidikan_terakhir</t>
+  </si>
+  <si>
+    <t>instansi_perusahaan</t>
+  </si>
+  <si>
+    <t>pemerintah_kota</t>
+  </si>
+  <si>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>status_kepegawaian</t>
+  </si>
+  <si>
+    <t>alamat_lengkap_kantor</t>
+  </si>
+  <si>
+    <t>kode_pos</t>
+  </si>
+  <si>
+    <t>unit_organisasi</t>
+  </si>
+  <si>
+    <t>posisi_pelaku_pengadaan</t>
+  </si>
+  <si>
+    <t>jenis_jabatan</t>
+  </si>
+  <si>
+    <t>nama_jabatan</t>
+  </si>
+  <si>
+    <t>golongan_terakhir</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>paket_kontribusi</t>
+  </si>
+  <si>
+    <t>pas_foto</t>
+  </si>
+  <si>
+    <t>ktp</t>
+  </si>
+  <si>
+    <t>sk_pengangkatan_asn</t>
+  </si>
 </sst>
 </file>
 
@@ -1244,7 +1172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1352,13 +1280,6 @@
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1437,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1525,6 +1446,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,157 +1667,159 @@
   </sheetPr>
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="30" width="18.85546875" customWidth="1"/>
+    <col min="2" max="21" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
+      <c r="A1" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>375</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <v>28293</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -1907,73 +1831,73 @@
     </row>
     <row r="3" spans="1:30" ht="12.75">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="L3" s="6">
         <v>29432</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="W3" s="10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -1985,73 +1909,73 @@
     </row>
     <row r="4" spans="1:30" ht="12.75">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2">
         <v>40265</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -2063,73 +1987,73 @@
     </row>
     <row r="5" spans="1:30" ht="12.75">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2">
         <v>75119</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -2141,76 +2065,76 @@
     </row>
     <row r="6" spans="1:30" ht="12.75">
       <c r="A6" s="12" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L6" s="12">
         <v>38876</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -2221,76 +2145,76 @@
     </row>
     <row r="7" spans="1:30" ht="12.75">
       <c r="A7" s="12" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="L7" s="12">
         <v>94471</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -2301,73 +2225,73 @@
     </row>
     <row r="8" spans="1:30" ht="12.75">
       <c r="A8" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L8" s="2">
         <v>98315</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
@@ -2379,76 +2303,76 @@
     </row>
     <row r="9" spans="1:30" ht="12.75">
       <c r="A9" s="17" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="L9" s="19">
         <v>94461</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="S9" s="20" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -2459,73 +2383,73 @@
     </row>
     <row r="10" spans="1:30" ht="12.75">
       <c r="A10" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I10" s="2">
         <v>6472050410820010</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="L10" s="2">
         <v>75119</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
@@ -2537,73 +2461,73 @@
     </row>
     <row r="11" spans="1:30" ht="12.75">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L11" s="2">
         <v>97544</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="S11" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -2615,61 +2539,61 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L12" s="2">
         <v>15610</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -2685,73 +2609,73 @@
     </row>
     <row r="13" spans="1:30" ht="12.75">
       <c r="A13" s="6" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="L13" s="6">
         <v>97544</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="S13" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -2763,73 +2687,73 @@
     </row>
     <row r="14" spans="1:30" ht="12.75">
       <c r="A14" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="L14" s="2">
         <v>97544</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -2841,73 +2765,73 @@
     </row>
     <row r="15" spans="1:30" ht="12.75">
       <c r="A15" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="I15" s="2">
         <v>910326077910003</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="L15" s="2">
         <v>99352</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -2919,61 +2843,61 @@
     </row>
     <row r="16" spans="1:30" ht="12.75">
       <c r="A16" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="L16" s="2">
         <v>15550</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2989,73 +2913,73 @@
     </row>
     <row r="17" spans="1:30" ht="12.75">
       <c r="A17" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="L17" s="2">
         <v>97544</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -3067,73 +2991,73 @@
     </row>
     <row r="18" spans="1:30" ht="12.75">
       <c r="A18" s="6" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L18" s="6">
         <v>85231</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
@@ -3145,73 +3069,73 @@
     </row>
     <row r="19" spans="1:30" ht="12.75">
       <c r="A19" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="L19" s="2">
         <v>97544</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="S19" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -3317,40 +3241,40 @@
   <sheetData>
     <row r="1" spans="1:29" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="12.75">
@@ -3358,35 +3282,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="23" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -3411,29 +3335,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="25" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="12.75">
@@ -3441,27 +3365,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
       <c r="K4" s="38"/>
       <c r="L4" s="25" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="12.75">
@@ -3469,38 +3393,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="25" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="12.75">
@@ -3508,31 +3432,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="37" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="25" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="12.75">
@@ -3540,33 +3464,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="25" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="12.75">
@@ -3574,23 +3498,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -3601,23 +3525,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -3628,23 +3552,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -3655,13 +3579,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -3676,16 +3600,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -3699,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C13" s="43">
         <v>8115599112</v>
@@ -3718,13 +3642,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -3739,13 +3663,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
@@ -3760,7 +3684,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -3777,7 +3701,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -3794,7 +3718,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -3811,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -3828,7 +3752,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -3845,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -3862,7 +3786,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -3879,7 +3803,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -3896,7 +3820,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -3913,7 +3837,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -3946,72 +3870,72 @@
         <v>45438.618299768517</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="48" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="48" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="R2" s="48">
         <v>97573</v>
       </c>
       <c r="S2" s="48" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="U2" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="W2" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="X2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="48" t="s">
         <v>39</v>
-      </c>
-      <c r="V2" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="W2" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="X2" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="48" t="s">
-        <v>61</v>
       </c>
       <c r="Z2" s="49"/>
       <c r="AA2" s="49"/>

--- a/public/excel/format_pbj/pbjsoffy1.xlsx
+++ b/public/excel/format_pbj/pbjsoffy1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FCAFC-05D6-4884-AC89-7667DA0ABF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E6F35-E160-40D3-BC49-FFF01E3A2DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="385">
   <si>
     <t>ST</t>
   </si>
@@ -1164,13 +1164,41 @@
   <si>
     <t>sk_pengangkatan_asn</t>
   </si>
+  <si>
+    <t>nama_tanpa_gelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZULKIFLI M Maulud </t>
+  </si>
+  <si>
+    <t>Fajar Prasetya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas Lautloly </t>
+  </si>
+  <si>
+    <t>CAROLIS ELIAS TUPAN</t>
+  </si>
+  <si>
+    <t>Jamaludin Lado Rua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aang Sunarto </t>
+  </si>
+  <si>
+    <t>Syamsul Qamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryo Gustaf Wattimury </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dmmmmyyyy"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1358,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1447,6 +1475,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1665,22 +1697,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="21" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="18.85546875" customWidth="1"/>
+    <col min="23" max="23" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75">
+    <row r="1" spans="1:31" ht="12.75">
       <c r="A1" s="51" t="s">
         <v>354</v>
       </c>
@@ -1688,914 +1721,949 @@
         <v>355</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="V1" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="12.75">
+    <row r="2" spans="1:31" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>28293</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-    </row>
-    <row r="3" spans="1:30" ht="12.75">
+      <c r="AE2" s="5"/>
+    </row>
+    <row r="3" spans="1:31" ht="12.75">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>29432</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
-    </row>
-    <row r="4" spans="1:30" ht="12.75">
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4" spans="1:31" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>40265</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" ht="12.75">
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" spans="1:31" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>75119</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" ht="12.75">
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" spans="1:31" ht="12.75">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>38876</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="S6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
-    </row>
-    <row r="7" spans="1:30" ht="12.75">
+      <c r="AE6" s="16"/>
+    </row>
+    <row r="7" spans="1:31" ht="12.75">
       <c r="A7" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>94471</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V7" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="X7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="Y7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
-    </row>
-    <row r="8" spans="1:30" ht="12.75">
+      <c r="AE7" s="16"/>
+    </row>
+    <row r="8" spans="1:31" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>98315</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" ht="12.75">
+      <c r="AE8" s="5"/>
+    </row>
+    <row r="9" spans="1:31" ht="12.75">
       <c r="A9" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="19">
+      <c r="M9" s="19">
         <v>94461</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="Q9" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="U9" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="V9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="W9" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="X9" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="X9" s="22" t="s">
+      <c r="Y9" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
-      <c r="AB9" s="5"/>
+      <c r="AB9" s="16"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30" ht="12.75">
+      <c r="AE9" s="5"/>
+    </row>
+    <row r="10" spans="1:31" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>6472050410820010</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>75119</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-    </row>
-    <row r="11" spans="1:30" ht="12.75">
+      <c r="AE10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>97544</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1">
+      <c r="AE11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>15610</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -2606,300 +2674,312 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30" ht="12.75">
+      <c r="AE12" s="5"/>
+    </row>
+    <row r="13" spans="1:31" ht="12.75">
       <c r="A13" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>97544</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="U13" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="V13" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="W13" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="X13" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" ht="12.75">
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>97544</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30" ht="12.75">
+      <c r="AE14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>910326077910003</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>99352</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" ht="12.75">
+      <c r="AE15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>15550</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -2910,314 +2990,324 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="1:30" ht="12.75">
+      <c r="AE16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>97544</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="1:30" ht="12.75">
+      <c r="AE17" s="5"/>
+    </row>
+    <row r="18" spans="1:31" ht="12.75">
       <c r="A18" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>85231</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="S18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="V18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="X18" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
-    </row>
-    <row r="19" spans="1:30" ht="12.75">
+      <c r="AE18" s="8"/>
+    </row>
+    <row r="19" spans="1:31" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>97544</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="U3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="T3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="V3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="W3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="U4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="V4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="W4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="U5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="T5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="V5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="W5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="U6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="T6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="V6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="W6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="X6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="U7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="T7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="V7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="W7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="X7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="U8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="V8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="W8" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="Q9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="S9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="R9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="U9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="T9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="V9" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="W9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="U10" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="T10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="V10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="W10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="U11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="T11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="V11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="W11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="U13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="T13" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="V13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="W13" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="U14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="T14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="V14" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="W14" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="U15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="V15" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="W15" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E17" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="U17" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="V17" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="W17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="U18" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T18" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="V18" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="W18" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="U19" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="T19" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="V19" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="W19" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="U3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="X3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="W4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="X4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="U5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="W5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="X5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="U6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="W6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="X6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Y6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="U7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="W7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Y7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="V8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="U8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="W8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="X8" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="R9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="T9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="S9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="V9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="U9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="W9" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="X9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Y9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="V10" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="U10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="W10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="X10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="U11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="W11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="X11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="V13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="U13" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="W13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X13" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="V14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="U14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="W14" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="X14" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="V15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="U15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="W15" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="X15" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F17" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="V17" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="U17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="W17" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="X17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="V18" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="U18" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="W18" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="X18" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="V19" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="U19" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="W19" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="X19" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
